--- a/biology/Médecine/Ernst_Soner/Ernst_Soner.xlsx
+++ b/biology/Médecine/Ernst_Soner/Ernst_Soner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Soner, né en décembre 1572 à Nuremberg et mort le 28 septembre 1612 à Altdorf bei Nürnberg, est un médecin, naturopathe et socinianiste allemand. Le Catéchisme de Soner, un texte unitaire de confession, est écrit par Soner.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un marchand de Nuremberg, il étudie la médecine à la future université d'Altdorf de 1589 à 1592 sous la direction de Nicolaus Taurellus (en) et de Philipp Scherbe.
 Après avoir obtenu son magistère en 1595, il part en voyage d'étude à Leyde aux Pays-Bas en 1597/1598, où il se convertit à l'unitarisme par les deux antitrinitaires Christophe Ostorod (Krzysztof Ostorod, 1560-1611) et Andrzej Wojdowski (en) (Voivodius, 1565-1622). Il se rend ensuite en Angleterre, en France et en Italie pour étudier principalement à Padoue, qui appartient alors à Venise. On suppose qu'il y écoute le "rationaliste" Aristotélicien Cesare Cremonini (1550-1631) ou ses étudiants.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Theses de febribus. 1596.
 Theses de sanguinis missione in genere, pro Galeno. 1597.
